--- a/biology/Mycologie/Boletinellus_merulioides/Boletinellus_merulioides.xlsx
+++ b/biology/Mycologie/Boletinellus_merulioides/Boletinellus_merulioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gyrodon merulioides[1] ou  Boletinellus merulioides[2], de son nom vernaculaire le Bolet veiné est un champignon basidiomycètes de la famille respectivement des Paxillaceae ou des Boletinellaceae. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyrodon merulioides ou  Boletinellus merulioides, de son nom vernaculaire le Bolet veiné est un champignon basidiomycètes de la famille respectivement des Paxillaceae ou des Boletinellaceae. 
 Ce bolet, qui est un ancêtre commun[Quoi ?] du genre Boletus[réf. nécessaire], a une particularité surprenante : il se nourrit du suc des pucerons du frêne, sans mycorhize avec l'arbre de son habitat. Côte Est des États-Unis et du Canada. 
 </t>
         </is>
@@ -514,11 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Boletinellus merulioides (Schw.) Murrill 1909[3][réf. incomplète].[réf. nécessaire]
-Synonymes
-Daedalea merulioides Schwein. (1832)
-Gyrodon merulioides</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletinellus merulioides (Schw.) Murrill 1909[réf. incomplète].[réf. nécessaire]
+</t>
         </is>
       </c>
     </row>
@@ -543,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Daedalea merulioides Schwein. (1832)
+Gyrodon merulioides</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletinellus_merulioides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletinellus_merulioides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyménophore, de 3-15 cm de diamètre, est convexe puis étalé à concave, 
 Cuticule sèche à viscidule, glabre ou presque, brun rougeâtre, brun jaunâtre ou brun olivâtre.
@@ -561,37 +615,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Boletinellus_merulioides</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boletinellus_merulioides</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">dispersé, grégaire ou souvent en troupes nombreuses; sous frênes, dans les forêts ou sur les pelouses; très commun. dans l'Est de l'Amérique du Nord[style à revoir]
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -613,13 +636,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie spécifique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écologie de ce bolet est particulièrement étonnante. Puisqu'il pousse presque exclusivement sous frênes, on supposerait que ce bolet et l'arbre soient en relation ectomycohizique. Le frêne, cependant, ne forme pas ce type de mycorhize et la présence du bolet à son voisinage est due à la relation entre le basidiome et un parasite aphidien qui vit seulement sur le frêne[4]. 
-L'aphide, qui se nourrit sur les racines d'arbre, se réfugie dans le sclérote mycélien creux formé par le bolet dans le sol ou relié au système racinaire du frêne. Les aphides sécrètent un sucre unique miellé et d'autres nutriments desquels les basidiomes peuvent se nourrir en retour. C'est un arrangement assez agréable pour les aphides et les basidiomes qui ne procure aucun bénéfice connu à l'arbre qui supporte l'aphide et ainsi, indirectement, au bolet[5].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dispersé, grégaire ou souvent en troupes nombreuses; sous frênes, dans les forêts ou sur les pelouses; très commun. dans l'Est de l'Amérique du Nord[style à revoir]
 </t>
         </is>
       </c>
@@ -645,12 +669,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Classification phylogénétique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-ordre des Sclerodermatineae, un des sous-ordre des Boletales pour Boletinellus merulioides[6]
+          <t>Biologie spécifique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écologie de ce bolet est particulièrement étonnante. Puisqu'il pousse presque exclusivement sous frênes, on supposerait que ce bolet et l'arbre soient en relation ectomycohizique. Le frêne, cependant, ne forme pas ce type de mycorhize et la présence du bolet à son voisinage est due à la relation entre le basidiome et un parasite aphidien qui vit seulement sur le frêne. 
+L'aphide, qui se nourrit sur les racines d'arbre, se réfugie dans le sclérote mycélien creux formé par le bolet dans le sol ou relié au système racinaire du frêne. Les aphides sécrètent un sucre unique miellé et d'autres nutriments desquels les basidiomes peuvent se nourrir en retour. C'est un arrangement assez agréable pour les aphides et les basidiomes qui ne procure aucun bénéfice connu à l'arbre qui supporte l'aphide et ainsi, indirectement, au bolet.
 </t>
         </is>
       </c>
@@ -676,12 +703,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fin juin à septembre[Quoi ?]
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-ordre des Sclerodermatineae, un des sous-ordre des Boletales pour Boletinellus merulioides
 </t>
         </is>
       </c>
@@ -707,10 +736,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">fin juin à septembre[Quoi ?]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boletinellus_merulioides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletinellus_merulioides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">non recommandé[réf. nécessaire]
 </t>
